--- a/Mapping_variabili_EHIS_2019 - Copia.xlsx
+++ b/Mapping_variabili_EHIS_2019 - Copia.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="176">
   <si>
     <t>Nome_colonna</t>
   </si>
@@ -38,553 +38,319 @@
     <t>Tema</t>
   </si>
   <si>
-    <t>PN1</t>
-  </si>
-  <si>
-    <t>Quanto   stato intenso l' eventuale dolore fisico che ha provato nelle ultime 4 settimane?</t>
-  </si>
-  <si>
-    <t>Salute percepita</t>
-  </si>
-  <si>
-    <t>PN2</t>
-  </si>
-  <si>
-    <t>Nelle ultime 4 settimane, in che misura il dolore fisico ha interferito con le attivit  che svolge abitualmente (in casa e fuori casa)?</t>
-  </si>
-  <si>
-    <t>MH1A</t>
-  </si>
-  <si>
-    <t>Scarso interesse o piacere nel fare le cose</t>
-  </si>
-  <si>
-    <t>MH1B</t>
-  </si>
-  <si>
-    <t>Sentirsi gi , depresso o disperato</t>
-  </si>
-  <si>
-    <t>MH1C</t>
-  </si>
-  <si>
-    <t>Avere problemi ad addormentarsi o a dormire tutta la notte senza svegliarsi, o dormire troppo</t>
-  </si>
-  <si>
-    <t>MH1D</t>
-  </si>
-  <si>
-    <t>Sentirsi stanco o avere poca energia</t>
-  </si>
-  <si>
-    <t>MH1E</t>
-  </si>
-  <si>
-    <t>Scarso appetito o mangiare troppo</t>
+    <t>HO12</t>
+  </si>
+  <si>
+    <t>Considerando tutti i ricoveri nei 12 mesi, quante notti ha trascorso complessivamente in ospedale</t>
+  </si>
+  <si>
+    <t>Accesso ai servizi sanitari</t>
+  </si>
+  <si>
+    <t>AM2</t>
+  </si>
+  <si>
+    <t>Quando   stata l ultima volta che si   rivolto al suo medico di famiglia per un problema che riguarda la sua salute?</t>
+  </si>
+  <si>
+    <t>AM3</t>
+  </si>
+  <si>
+    <t>Nelle ultime 4 settimane, quante volte si   rivolto al medico di famiglia per un problema che riguarda la sua salute?</t>
+  </si>
+  <si>
+    <t>AM4</t>
+  </si>
+  <si>
+    <t>Quando   stata l 'ultima volta che ha effettuato una visita medica specialistica (oculistica, ortopedica, cardiologica, ginecologica, psichiatrica, ecc.) per un problema che riguarda la sua salute?</t>
+  </si>
+  <si>
+    <t>AM5</t>
+  </si>
+  <si>
+    <t>Nelle ultime 4 settimane, quante visite specialistiche ha fettuato per un problema che riguarda la sua salute?</t>
+  </si>
+  <si>
+    <t>Altro / Da rivedere</t>
+  </si>
+  <si>
+    <t>VSTRUT</t>
+  </si>
+  <si>
+    <t>Struttura dell'ultima visita specialistica</t>
+  </si>
+  <si>
+    <t>VVIC</t>
+  </si>
+  <si>
+    <t>Ha scelto la struttura pi  vicina</t>
+  </si>
+  <si>
+    <t>VECO1</t>
+  </si>
+  <si>
+    <t>Per non pagare o pagare di meno</t>
+  </si>
+  <si>
+    <t>VFID</t>
+  </si>
+  <si>
+    <t>Per fiducia nella struttura o nello specialista</t>
+  </si>
+  <si>
+    <t>VATT</t>
+  </si>
+  <si>
+    <t>Avrebbe dovuto aspettare troppo tempo per prenotare in un altra struttura del SSN</t>
+  </si>
+  <si>
+    <t>VALTRO</t>
+  </si>
+  <si>
+    <t>Altro</t>
+  </si>
+  <si>
+    <t>VSPESA</t>
+  </si>
+  <si>
+    <t>Spesa ultima visita</t>
+  </si>
+  <si>
+    <t>AM6A</t>
+  </si>
+  <si>
+    <t>Negli ultimi 12 mesi per un problema che riguarda la sua salute si   rivolto a  .Fisioterapista, chinesiterapista, ecc</t>
+  </si>
+  <si>
+    <t>AM6B</t>
+  </si>
+  <si>
+    <t>Negli ultimi 12 mesi per un problema che riguarda la sua salute si   rivolto a  ..Psichiatra, psicologo, psicoterapeuta</t>
+  </si>
+  <si>
+    <t>AM64</t>
+  </si>
+  <si>
+    <t>Negli ultimi 12 mesi per un problema che riguarda la sua salute si   rivolto a un logopedista, ortottista, audiometrista</t>
+  </si>
+  <si>
+    <t>RISPES</t>
+  </si>
+  <si>
+    <t>Spesa per trattamenti da Logopedista, ortottista, audiometrista o fisioterapista negli ultimi 12 mesi</t>
+  </si>
+  <si>
+    <t>SPE</t>
+  </si>
+  <si>
+    <t>Accertamenti diagnostici negli ultimi 12 mesi</t>
+  </si>
+  <si>
+    <t>ASTRUT</t>
+  </si>
+  <si>
+    <t>AECO1</t>
+  </si>
+  <si>
+    <t>AFID</t>
+  </si>
+  <si>
+    <t>Fiducia</t>
+  </si>
+  <si>
+    <t>AATT</t>
+  </si>
+  <si>
+    <t>AALTRO</t>
+  </si>
+  <si>
+    <t>ASPESAS</t>
+  </si>
+  <si>
+    <t>Spesa per l'ultimo accertamento</t>
+  </si>
+  <si>
+    <t>AM7</t>
+  </si>
+  <si>
+    <t>Negli ultimi 12 mesi ha usufruito di assistenza domiciliare per un problema che riguarda la sua salute?</t>
+  </si>
+  <si>
+    <t>MD1</t>
+  </si>
+  <si>
+    <t>Nelle ultime 2 settimane ha fatto uso di farmaci o integratori a base di erbe o vitamine che le sono stati PRESCRITTI da un medico?</t>
+  </si>
+  <si>
+    <t>MD2</t>
+  </si>
+  <si>
+    <t>Nelle ultime 2 settimane ha fatto uso di farmaci o integratori a base di erbe o vitamine NON PRESCRITTI da un medico?</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>Ultima volta che ha fatto il vaccino contro l'influenza</t>
+  </si>
+  <si>
+    <t>MONOVAC1</t>
+  </si>
+  <si>
+    <t>Per quale motivo non ha fatto il vaccino antinfluenzale: Non penso di essere un soggetto a rischio</t>
+  </si>
+  <si>
+    <t>MONOVAC2</t>
+  </si>
+  <si>
+    <t>Per quale motivo non ha fatto il vaccino antinfluenzale: Nessun medico me l ha consigliato</t>
+  </si>
+  <si>
+    <t>MONOVAC3</t>
+  </si>
+  <si>
+    <t>Per quale motivo non ha fatto il vaccino antinfluenzale: Per prudenza / per timore dei rischi</t>
+  </si>
+  <si>
+    <t>MONOVAC4</t>
+  </si>
+  <si>
+    <t>Per quale motivo non ha fatto il vaccino antinfluenzale: Ho dubbi sulla sua efficacia</t>
+  </si>
+  <si>
+    <t>MONOVAC7</t>
+  </si>
+  <si>
+    <t>Per quale motivo non ha fatto il vaccino antinfluenzale: Per altro motivo</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>Quando   stata l 'ultima volta che le   stata misurata la pressione arteriosa da personale sanitario (medico, infermiere, farmacista, ecc.)?</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>Quando   stata l 'ultima volta che le   stato misurato il colesterolo nel sangue da personale sanitario (medico, infermiere, farmacista, ecc.)?</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>Quando   stata l' ultima volta che le   stata misurata la glicemia (zucchero nel sangue) da personale sanitario (medico, infermiere, farmacista, ecc.)?</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>Quando ha fatto l 'ultima volta il test per la ricerca del sangue occulto nelle feci?</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>Quando ha fatto l 'ultima volta la colonscopia?</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>Quando ha fatto l' ultima volta la mammografia?</t>
+  </si>
+  <si>
+    <t>MAMSINT</t>
+  </si>
+  <si>
+    <t>Ha fatto l'ultima mammografia in assenza di disturbi o sintomi</t>
+  </si>
+  <si>
+    <t>INDMAM</t>
+  </si>
+  <si>
+    <t>L'ultima mammografia   stata fatta</t>
+  </si>
+  <si>
+    <t>CETAMAM</t>
+  </si>
+  <si>
+    <t>Et  alla prima mammografia</t>
+  </si>
+  <si>
+    <t>NMAMMO</t>
+  </si>
+  <si>
+    <t>Frequenza della mammografia</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>Quando ha fatto l' ultima volta il pap test?</t>
+  </si>
+  <si>
+    <t>PA89</t>
+  </si>
+  <si>
+    <t>L'ultima volta che ha fatto il pap-test o il test per la ricerca del papilloma virus</t>
+  </si>
+  <si>
+    <t>CETAPAPH</t>
+  </si>
+  <si>
+    <t>Et  al primo pap-test or test hpv</t>
+  </si>
+  <si>
+    <t>NPAPHPV</t>
+  </si>
+  <si>
+    <t>Frequenza dei controlli successivi al primo paptest o test hpv</t>
+  </si>
+  <si>
+    <t>UN1A</t>
+  </si>
+  <si>
+    <t>Negli ultimi 12 mesi ha effettuato qualche prestazione sanitaria in ritardo perch  la lista d attesa era troppo lunga?</t>
+  </si>
+  <si>
+    <t>UN1B</t>
+  </si>
+  <si>
+    <t>Negli ultimi 12 mesi ha effettuato qualche prestazione sanitaria in ritardo per difficolt  dovute alla distanza o alla disponibilit  di mezzi di trasporto?</t>
+  </si>
+  <si>
+    <t>UN2A</t>
+  </si>
+  <si>
+    <t>Rinuncia a Esami o cure mediche</t>
+  </si>
+  <si>
+    <t>UN2B</t>
+  </si>
+  <si>
+    <t>Rinuncia a Visite o trattamenti dentistici od ortodontistici</t>
+  </si>
+  <si>
+    <t>UN2C</t>
+  </si>
+  <si>
+    <t>Rinuncia a Farmaci prescritti da un medico</t>
+  </si>
+  <si>
+    <t>UN2D</t>
+  </si>
+  <si>
+    <t>Rinuncia a Psicologo, psichiatra o psicoterapeuta</t>
+  </si>
+  <si>
+    <t>ABUSO</t>
+  </si>
+  <si>
+    <t>Abuso giornaliero</t>
   </si>
   <si>
     <t>Stili di vita</t>
-  </si>
-  <si>
-    <t>MH1F</t>
-  </si>
-  <si>
-    <t>Provare una scarsa opinione di s , sentirsi un fallimento oppure sentire di aver deluso se stesso o la sua famiglia</t>
-  </si>
-  <si>
-    <t>Salute mentale</t>
-  </si>
-  <si>
-    <t>MH1G</t>
-  </si>
-  <si>
-    <t>Difficolt  a concentrarsi su qualcosa, ad esempio per leggere il giornale o guardare la televisione</t>
-  </si>
-  <si>
-    <t>MH1H</t>
-  </si>
-  <si>
-    <t>Muoversi o parlare cos  lentamente da poter essere notato da altre persone, oppure avvertire irrequietezza o agitazione insolita</t>
-  </si>
-  <si>
-    <t>HO12</t>
-  </si>
-  <si>
-    <t>Considerando tutti i ricoveri nei 12 mesi, quante notti ha trascorso complessivamente in ospedale</t>
-  </si>
-  <si>
-    <t>Accesso ai servizi sanitari</t>
-  </si>
-  <si>
-    <t>AM1</t>
-  </si>
-  <si>
-    <t>Ultima visita dentistica</t>
-  </si>
-  <si>
-    <t>LAVDEN</t>
-  </si>
-  <si>
-    <t>Frequenza con cui si lava i denti</t>
-  </si>
-  <si>
-    <t>DOVEDENT</t>
-  </si>
-  <si>
-    <t>TIPO DI DENTISTA/ORTODONTISTA A CUI PREVALENTEMENTE SI E  RIVOLTO</t>
-  </si>
-  <si>
-    <t>PAG_DENT1</t>
-  </si>
-  <si>
-    <t>Se ha pagato per le cure dentali ultimo trattamento. 12 mesi.</t>
-  </si>
-  <si>
-    <t>Altro / Da rivedere</t>
-  </si>
-  <si>
-    <t>AM2</t>
-  </si>
-  <si>
-    <t>Quando   stata l ultima volta che si   rivolto al suo medico di famiglia per un problema che riguarda la sua salute?</t>
-  </si>
-  <si>
-    <t>AM3</t>
-  </si>
-  <si>
-    <t>Nelle ultime 4 settimane, quante volte si   rivolto al medico di famiglia per un problema che riguarda la sua salute?</t>
-  </si>
-  <si>
-    <t>AM4</t>
-  </si>
-  <si>
-    <t>Quando   stata l 'ultima volta che ha effettuato una visita medica specialistica (oculistica, ortopedica, cardiologica, ginecologica, psichiatrica, ecc.) per un problema che riguarda la sua salute?</t>
-  </si>
-  <si>
-    <t>AM5</t>
-  </si>
-  <si>
-    <t>Nelle ultime 4 settimane, quante visite specialistiche ha fettuato per un problema che riguarda la sua salute?</t>
-  </si>
-  <si>
-    <t>VSTRUT</t>
-  </si>
-  <si>
-    <t>Struttura dell'ultima visita specialistica</t>
-  </si>
-  <si>
-    <t>VVIC</t>
-  </si>
-  <si>
-    <t>Ha scelto la struttura pi  vicina</t>
-  </si>
-  <si>
-    <t>VECO1</t>
-  </si>
-  <si>
-    <t>Per non pagare o pagare di meno</t>
-  </si>
-  <si>
-    <t>VFID</t>
-  </si>
-  <si>
-    <t>Per fiducia nella struttura o nello specialista</t>
-  </si>
-  <si>
-    <t>VATT</t>
-  </si>
-  <si>
-    <t>Avrebbe dovuto aspettare troppo tempo per prenotare in un altra struttura del SSN</t>
-  </si>
-  <si>
-    <t>VALTRO</t>
-  </si>
-  <si>
-    <t>Altro</t>
-  </si>
-  <si>
-    <t>VSPESA</t>
-  </si>
-  <si>
-    <t>Spesa ultima visita</t>
-  </si>
-  <si>
-    <t>AM6A</t>
-  </si>
-  <si>
-    <t>Negli ultimi 12 mesi per un problema che riguarda la sua salute si   rivolto a  .Fisioterapista, chinesiterapista, ecc</t>
-  </si>
-  <si>
-    <t>AM6B</t>
-  </si>
-  <si>
-    <t>Negli ultimi 12 mesi per un problema che riguarda la sua salute si   rivolto a  ..Psichiatra, psicologo, psicoterapeuta</t>
-  </si>
-  <si>
-    <t>AM64</t>
-  </si>
-  <si>
-    <t>Negli ultimi 12 mesi per un problema che riguarda la sua salute si   rivolto a un logopedista, ortottista, audiometrista</t>
-  </si>
-  <si>
-    <t>RISPES</t>
-  </si>
-  <si>
-    <t>Spesa per trattamenti da Logopedista, ortottista, audiometrista o fisioterapista negli ultimi 12 mesi</t>
-  </si>
-  <si>
-    <t>SPE</t>
-  </si>
-  <si>
-    <t>Accertamenti diagnostici negli ultimi 12 mesi</t>
-  </si>
-  <si>
-    <t>ASTRUT</t>
-  </si>
-  <si>
-    <t>AECO1</t>
-  </si>
-  <si>
-    <t>AFID</t>
-  </si>
-  <si>
-    <t>Fiducia</t>
-  </si>
-  <si>
-    <t>AATT</t>
-  </si>
-  <si>
-    <t>AALTRO</t>
-  </si>
-  <si>
-    <t>ASPESAS</t>
-  </si>
-  <si>
-    <t>Spesa per l'ultimo accertamento</t>
-  </si>
-  <si>
-    <t>AM7</t>
-  </si>
-  <si>
-    <t>Negli ultimi 12 mesi ha usufruito di assistenza domiciliare per un problema che riguarda la sua salute?</t>
-  </si>
-  <si>
-    <t>MD1</t>
-  </si>
-  <si>
-    <t>Nelle ultime 2 settimane ha fatto uso di farmaci o integratori a base di erbe o vitamine che le sono stati PRESCRITTI da un medico?</t>
-  </si>
-  <si>
-    <t>MD2</t>
-  </si>
-  <si>
-    <t>Nelle ultime 2 settimane ha fatto uso di farmaci o integratori a base di erbe o vitamine NON PRESCRITTI da un medico?</t>
-  </si>
-  <si>
-    <t>PA1</t>
-  </si>
-  <si>
-    <t>Ultima volta che ha fatto il vaccino contro l'influenza</t>
-  </si>
-  <si>
-    <t>MONOVAC1</t>
-  </si>
-  <si>
-    <t>Per quale motivo non ha fatto il vaccino antinfluenzale: Non penso di essere un soggetto a rischio</t>
-  </si>
-  <si>
-    <t>MONOVAC2</t>
-  </si>
-  <si>
-    <t>Per quale motivo non ha fatto il vaccino antinfluenzale: Nessun medico me l ha consigliato</t>
-  </si>
-  <si>
-    <t>MONOVAC3</t>
-  </si>
-  <si>
-    <t>Per quale motivo non ha fatto il vaccino antinfluenzale: Per prudenza / per timore dei rischi</t>
-  </si>
-  <si>
-    <t>MONOVAC4</t>
-  </si>
-  <si>
-    <t>Per quale motivo non ha fatto il vaccino antinfluenzale: Ho dubbi sulla sua efficacia</t>
-  </si>
-  <si>
-    <t>MONOVAC7</t>
-  </si>
-  <si>
-    <t>Per quale motivo non ha fatto il vaccino antinfluenzale: Per altro motivo</t>
-  </si>
-  <si>
-    <t>PA2</t>
-  </si>
-  <si>
-    <t>Quando   stata l 'ultima volta che le   stata misurata la pressione arteriosa da personale sanitario (medico, infermiere, farmacista, ecc.)?</t>
-  </si>
-  <si>
-    <t>PA3</t>
-  </si>
-  <si>
-    <t>Quando   stata l 'ultima volta che le   stato misurato il colesterolo nel sangue da personale sanitario (medico, infermiere, farmacista, ecc.)?</t>
-  </si>
-  <si>
-    <t>PA4</t>
-  </si>
-  <si>
-    <t>Quando   stata l' ultima volta che le   stata misurata la glicemia (zucchero nel sangue) da personale sanitario (medico, infermiere, farmacista, ecc.)?</t>
-  </si>
-  <si>
-    <t>PA5</t>
-  </si>
-  <si>
-    <t>Quando ha fatto l 'ultima volta il test per la ricerca del sangue occulto nelle feci?</t>
-  </si>
-  <si>
-    <t>PA6</t>
-  </si>
-  <si>
-    <t>Quando ha fatto l 'ultima volta la colonscopia?</t>
-  </si>
-  <si>
-    <t>PA7</t>
-  </si>
-  <si>
-    <t>Quando ha fatto l' ultima volta la mammografia?</t>
-  </si>
-  <si>
-    <t>MAMSINT</t>
-  </si>
-  <si>
-    <t>Ha fatto l'ultima mammografia in assenza di disturbi o sintomi</t>
-  </si>
-  <si>
-    <t>INDMAM</t>
-  </si>
-  <si>
-    <t>L'ultima mammografia   stata fatta</t>
-  </si>
-  <si>
-    <t>CETAMAM</t>
-  </si>
-  <si>
-    <t>Et  alla prima mammografia</t>
-  </si>
-  <si>
-    <t>NMAMMO</t>
-  </si>
-  <si>
-    <t>Frequenza della mammografia</t>
-  </si>
-  <si>
-    <t>PA8</t>
-  </si>
-  <si>
-    <t>Quando ha fatto l' ultima volta il pap test?</t>
-  </si>
-  <si>
-    <t>PA89</t>
-  </si>
-  <si>
-    <t>L'ultima volta che ha fatto il pap-test o il test per la ricerca del papilloma virus</t>
-  </si>
-  <si>
-    <t>CETAPAPH</t>
-  </si>
-  <si>
-    <t>Et  al primo pap-test or test hpv</t>
-  </si>
-  <si>
-    <t>NPAPHPV</t>
-  </si>
-  <si>
-    <t>Frequenza dei controlli successivi al primo paptest o test hpv</t>
-  </si>
-  <si>
-    <t>UN1A</t>
-  </si>
-  <si>
-    <t>Negli ultimi 12 mesi ha effettuato qualche prestazione sanitaria in ritardo perch  la lista d attesa era troppo lunga?</t>
-  </si>
-  <si>
-    <t>UN1B</t>
-  </si>
-  <si>
-    <t>Negli ultimi 12 mesi ha effettuato qualche prestazione sanitaria in ritardo per difficolt  dovute alla distanza o alla disponibilit  di mezzi di trasporto?</t>
-  </si>
-  <si>
-    <t>UN2A</t>
-  </si>
-  <si>
-    <t>Rinuncia a Esami o cure mediche</t>
-  </si>
-  <si>
-    <t>UN2B</t>
-  </si>
-  <si>
-    <t>Rinuncia a Visite o trattamenti dentistici od ortodontistici</t>
-  </si>
-  <si>
-    <t>UN2C</t>
-  </si>
-  <si>
-    <t>Rinuncia a Farmaci prescritti da un medico</t>
-  </si>
-  <si>
-    <t>UN2D</t>
-  </si>
-  <si>
-    <t>Rinuncia a Psicologo, psichiatra o psicoterapeuta</t>
-  </si>
-  <si>
-    <t>BMI_CLASS</t>
-  </si>
-  <si>
-    <t>Indice di massa corporea</t>
-  </si>
-  <si>
-    <t>PE1</t>
-  </si>
-  <si>
-    <t>Sforzo fisico nelle attivit  di lavoro</t>
-  </si>
-  <si>
-    <t>PE2</t>
-  </si>
-  <si>
-    <t>Abitualmente quanti giorni a settimana CAMMINA continuativamente per almeno 10 minuti per spostarsi da un posto ad un altro?</t>
-  </si>
-  <si>
-    <t>PE3</t>
-  </si>
-  <si>
-    <t>Abitualmente quanto tempo cammina al giorno per spostarsi da un posto all altro?</t>
-  </si>
-  <si>
-    <t>PE4</t>
-  </si>
-  <si>
-    <t>Abitualmente quanti giorni a settimana VA IN BICICLETTA continuativamente per almeno 10 minuti per spostarsi da un posto ad un altro?</t>
-  </si>
-  <si>
-    <t>PE5</t>
-  </si>
-  <si>
-    <t>Abitualmente quanto tempo va in bicicletta al giorno per spostarsi da un posto all altro?</t>
-  </si>
-  <si>
-    <t>PE6</t>
-  </si>
-  <si>
-    <t>Abitualmente quanti giorni a settimana pratica sport, attivit  di fitness o attivit  fisiche ricreative (nel tempo libero) continuativamente per almeno 10 minuti?</t>
-  </si>
-  <si>
-    <t>PE7_CL</t>
-  </si>
-  <si>
-    <t>Per quanto tempo pratica sport, attivit  di fitness o attivit  fisiche ricreative (nel tempo libero) in una settimana? Classi di minuti</t>
-  </si>
-  <si>
-    <t>PE8</t>
-  </si>
-  <si>
-    <t>Normalmente quanti giorni a settimana pratica attivit  specifiche per POTENZIARE i suoi muscoli, con qualsiasi allenamento o esercizio fisico?</t>
-  </si>
-  <si>
-    <t>PE9_CL</t>
-  </si>
-  <si>
-    <t>Tempo trascorso stando seduto in una giornata normale</t>
-  </si>
-  <si>
-    <t>DH1</t>
-  </si>
-  <si>
-    <t>Quanto spesso mangia frutta?</t>
-  </si>
-  <si>
-    <t>DH2</t>
-  </si>
-  <si>
-    <t>N. porzioni frutta al giorno</t>
-  </si>
-  <si>
-    <t>DH3</t>
-  </si>
-  <si>
-    <t>Quanto spesso mangia verdura?</t>
-  </si>
-  <si>
-    <t>DH4</t>
-  </si>
-  <si>
-    <t>N. porzioni verdura al giorno</t>
-  </si>
-  <si>
-    <t>DH5</t>
-  </si>
-  <si>
-    <t>Quanto spesso beve succhi 100% di frutta/verdura?</t>
-  </si>
-  <si>
-    <t>DH6</t>
-  </si>
-  <si>
-    <t>Quanto spesso consuma bevande analcoliche con zucchero?</t>
-  </si>
-  <si>
-    <t>FUMO</t>
-  </si>
-  <si>
-    <t>Lei attualmente fuma?</t>
-  </si>
-  <si>
-    <t>SK2</t>
-  </si>
-  <si>
-    <t>N  sigarette al giorno (media)</t>
-  </si>
-  <si>
-    <t>SK3</t>
-  </si>
-  <si>
-    <t>Ex- fumatore giornaliero</t>
-  </si>
-  <si>
-    <t>SK4_CL</t>
-  </si>
-  <si>
-    <t>Da quanti anni fuma o ha fumato tutti i giorni?</t>
-  </si>
-  <si>
-    <t>CETAFU</t>
-  </si>
-  <si>
-    <t>A che et  ha iniziato a fumare</t>
-  </si>
-  <si>
-    <t>SK5</t>
-  </si>
-  <si>
-    <t>Quanto spesso   esposto al fumo di tabacco in ambienti chiusi (casa, ufficio, ristoranti, ecc.)?</t>
-  </si>
-  <si>
-    <t>SK6</t>
-  </si>
-  <si>
-    <t>Uso sigaretta elettronica</t>
-  </si>
-  <si>
-    <t>ACQUA</t>
-  </si>
-  <si>
-    <t>consumo di acqua</t>
-  </si>
-  <si>
-    <t>ABUSO</t>
-  </si>
-  <si>
-    <t>Abuso giornaliero</t>
   </si>
   <si>
     <t>RISCHIO</t>
@@ -1792,8 +1558,8 @@
   <sheetPr/>
   <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1809,1357 +1575,939 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>3</v>
-      </c>
-      <c r="B123" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>12</v>
-      </c>
-      <c r="B127" t="s">
-        <v>13</v>
-      </c>
-      <c r="C127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>16</v>
-      </c>
-      <c r="B129" t="s">
-        <v>17</v>
-      </c>
-      <c r="C129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>19</v>
-      </c>
-      <c r="B130" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>22</v>
-      </c>
-      <c r="B131" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>24</v>
-      </c>
-      <c r="B132" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>29</v>
-      </c>
-      <c r="B134" t="s">
-        <v>30</v>
-      </c>
-      <c r="C134" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>31</v>
-      </c>
-      <c r="B135" t="s">
-        <v>32</v>
-      </c>
-      <c r="C135" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>33</v>
-      </c>
-      <c r="B136" t="s">
-        <v>34</v>
-      </c>
-      <c r="C136" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>35</v>
-      </c>
-      <c r="B137" t="s">
-        <v>36</v>
-      </c>
-      <c r="C137" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B146" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B147" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C147" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B149" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B151" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B153" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B154" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B156" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B157" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B158" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B160" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B161" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B162" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B163" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B164" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B165" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B166" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B167" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B168" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B169" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B170" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B172" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B173" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B174" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B175" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B176" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B177" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B178" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B179" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B180" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B181" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B182" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B183" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="B184" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B185" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B186" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B187" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="B188" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>136</v>
-      </c>
-      <c r="B189" t="s">
-        <v>137</v>
-      </c>
-      <c r="C189" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>138</v>
-      </c>
-      <c r="B190" t="s">
-        <v>139</v>
-      </c>
-      <c r="C190" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>140</v>
-      </c>
-      <c r="B191" t="s">
-        <v>141</v>
-      </c>
-      <c r="C191" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>142</v>
-      </c>
-      <c r="B192" t="s">
-        <v>143</v>
-      </c>
-      <c r="C192" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>144</v>
-      </c>
-      <c r="B193" t="s">
-        <v>145</v>
-      </c>
-      <c r="C193" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>146</v>
-      </c>
-      <c r="B194" t="s">
-        <v>147</v>
-      </c>
-      <c r="C194" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>148</v>
-      </c>
-      <c r="B195" t="s">
-        <v>149</v>
-      </c>
-      <c r="C195" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>150</v>
-      </c>
-      <c r="B196" t="s">
-        <v>151</v>
-      </c>
-      <c r="C196" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>152</v>
-      </c>
-      <c r="B197" t="s">
-        <v>153</v>
-      </c>
-      <c r="C197" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>154</v>
-      </c>
-      <c r="B198" t="s">
-        <v>155</v>
-      </c>
-      <c r="C198" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>156</v>
-      </c>
-      <c r="B199" t="s">
-        <v>157</v>
-      </c>
-      <c r="C199" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>158</v>
-      </c>
-      <c r="B200" t="s">
-        <v>159</v>
-      </c>
-      <c r="C200" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>160</v>
-      </c>
-      <c r="B201" t="s">
-        <v>161</v>
-      </c>
-      <c r="C201" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>162</v>
-      </c>
-      <c r="B202" t="s">
-        <v>163</v>
-      </c>
-      <c r="C202" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>164</v>
-      </c>
-      <c r="B203" t="s">
-        <v>165</v>
-      </c>
-      <c r="C203" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>166</v>
-      </c>
-      <c r="B204" t="s">
-        <v>167</v>
-      </c>
-      <c r="C204" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>168</v>
-      </c>
-      <c r="B205" t="s">
-        <v>169</v>
-      </c>
-      <c r="C205" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>170</v>
-      </c>
-      <c r="B206" t="s">
-        <v>171</v>
-      </c>
-      <c r="C206" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
-        <v>172</v>
-      </c>
-      <c r="B207" t="s">
-        <v>173</v>
-      </c>
-      <c r="C207" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
-        <v>174</v>
-      </c>
-      <c r="B208" t="s">
-        <v>175</v>
-      </c>
-      <c r="C208" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>176</v>
-      </c>
-      <c r="B209" t="s">
-        <v>177</v>
-      </c>
-      <c r="C209" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>178</v>
-      </c>
-      <c r="B210" t="s">
-        <v>179</v>
-      </c>
-      <c r="C210" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>180</v>
-      </c>
-      <c r="B211" t="s">
-        <v>181</v>
-      </c>
-      <c r="C211" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>182</v>
-      </c>
-      <c r="B212" t="s">
-        <v>183</v>
-      </c>
-      <c r="C212" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="B213" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="C213" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="B214" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="C214" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="B215" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="B216" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="C216" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="B217" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="C217" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="B218" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="C218" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="B219" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="C219" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="B220" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="C220" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="B221" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="C221" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="B222" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="C222" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="B223" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="C223" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="B224" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="C224" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="B225" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="C225" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="B226" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C226" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="B227" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="C227" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="B228" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="C228" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="B229" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="C229" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="B230" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="C230" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="B231" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="C231" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="B232" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="C232" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="B233" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="C233" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="B234" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="C234" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="B235" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="C235" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="C236" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="C237" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="C238" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="B239" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="C239" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="B240" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="C240" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="B241" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="C241" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="B242" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="C242" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="B243" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="C243" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="B244" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="C244" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="B245" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="C245" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
